--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H2">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I2">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J2">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.33157040558637</v>
+        <v>4.432949333333333</v>
       </c>
       <c r="N2">
-        <v>2.33157040558637</v>
+        <v>13.298848</v>
       </c>
       <c r="O2">
-        <v>0.04899444035043449</v>
+        <v>0.08196001439564389</v>
       </c>
       <c r="P2">
-        <v>0.04899444035043449</v>
+        <v>0.09728967502601975</v>
       </c>
       <c r="Q2">
-        <v>29.26682842774072</v>
+        <v>66.97709014023467</v>
       </c>
       <c r="R2">
-        <v>29.26682842774072</v>
+        <v>602.7938112621119</v>
       </c>
       <c r="S2">
-        <v>0.01898898655998773</v>
+        <v>0.03242432221436328</v>
       </c>
       <c r="T2">
-        <v>0.01898898655998773</v>
+        <v>0.04141249648568722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H3">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I3">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J3">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.30276777768093</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N3">
-        <v>5.30276777768093</v>
+        <v>17.782357</v>
       </c>
       <c r="O3">
-        <v>0.1114296780201477</v>
+        <v>0.10959161543229</v>
       </c>
       <c r="P3">
-        <v>0.1114296780201477</v>
+        <v>0.1300894433658214</v>
       </c>
       <c r="Q3">
-        <v>66.56251699270881</v>
+        <v>89.55742089050366</v>
       </c>
       <c r="R3">
-        <v>66.56251699270881</v>
+        <v>806.0167880145331</v>
       </c>
       <c r="S3">
-        <v>0.04318728090726279</v>
+        <v>0.04335570066661702</v>
       </c>
       <c r="T3">
-        <v>0.04318728090726279</v>
+        <v>0.05537410434119824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H4">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I4">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J4">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.81533391827404</v>
+        <v>10.45419133333333</v>
       </c>
       <c r="N4">
-        <v>7.81533391827404</v>
+        <v>31.362574</v>
       </c>
       <c r="O4">
-        <v>0.1642274711328337</v>
+        <v>0.1932856903488518</v>
       </c>
       <c r="P4">
-        <v>0.1642274711328337</v>
+        <v>0.2294375146207774</v>
       </c>
       <c r="Q4">
-        <v>98.10127815295601</v>
+        <v>157.9515718826007</v>
       </c>
       <c r="R4">
-        <v>98.10127815295601</v>
+        <v>1421.564146943406</v>
       </c>
       <c r="S4">
-        <v>0.06365034930120386</v>
+        <v>0.07646603712199826</v>
       </c>
       <c r="T4">
-        <v>0.06365034930120386</v>
+        <v>0.09766278143468557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H5">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I5">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J5">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.70715598593627</v>
+        <v>7.705256000000001</v>
       </c>
       <c r="N5">
-        <v>6.70715598593627</v>
+        <v>23.115768</v>
       </c>
       <c r="O5">
-        <v>0.1409407809803499</v>
+        <v>0.1424611122742635</v>
       </c>
       <c r="P5">
-        <v>0.1409407809803499</v>
+        <v>0.1691067945657298</v>
       </c>
       <c r="Q5">
-        <v>84.19097403542652</v>
+        <v>116.418119599288</v>
       </c>
       <c r="R5">
-        <v>84.19097403542652</v>
+        <v>1047.763076393592</v>
       </c>
       <c r="S5">
-        <v>0.05462502636314541</v>
+        <v>0.05635925080612005</v>
       </c>
       <c r="T5">
-        <v>0.05462502636314541</v>
+        <v>0.07198229959948119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.5524103229387</v>
+        <v>15.108923</v>
       </c>
       <c r="H6">
-        <v>12.5524103229387</v>
+        <v>45.326769</v>
       </c>
       <c r="I6">
-        <v>0.3875743130071152</v>
+        <v>0.3956114753450629</v>
       </c>
       <c r="J6">
-        <v>0.3875743130071152</v>
+        <v>0.4256617824513403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.4316409083866</v>
+        <v>25.566883</v>
       </c>
       <c r="N6">
-        <v>25.4316409083866</v>
+        <v>51.13376599999999</v>
       </c>
       <c r="O6">
-        <v>0.5344076295162343</v>
+        <v>0.4727015675489508</v>
       </c>
       <c r="P6">
-        <v>0.5344076295162343</v>
+        <v>0.3740765724216517</v>
       </c>
       <c r="Q6">
-        <v>319.2283918677021</v>
+        <v>386.2880665970089</v>
       </c>
       <c r="R6">
-        <v>319.2283918677021</v>
+        <v>2317.728399582053</v>
       </c>
       <c r="S6">
-        <v>0.2071226698755154</v>
+        <v>0.1870061645359643</v>
       </c>
       <c r="T6">
-        <v>0.2071226698755154</v>
+        <v>0.1592301005902881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H7">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J7">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.33157040558637</v>
+        <v>4.432949333333333</v>
       </c>
       <c r="N7">
-        <v>2.33157040558637</v>
+        <v>13.298848</v>
       </c>
       <c r="O7">
-        <v>0.04899444035043449</v>
+        <v>0.08196001439564389</v>
       </c>
       <c r="P7">
-        <v>0.04899444035043449</v>
+        <v>0.09728967502601975</v>
       </c>
       <c r="Q7">
-        <v>24.07047098583011</v>
+        <v>50.54812627241954</v>
       </c>
       <c r="R7">
-        <v>24.07047098583011</v>
+        <v>454.933136451776</v>
       </c>
       <c r="S7">
-        <v>0.01561747119852805</v>
+        <v>0.02447088594260495</v>
       </c>
       <c r="T7">
-        <v>0.01561747119852805</v>
+        <v>0.03125433035731633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H8">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J8">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.30276777768093</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N8">
-        <v>5.30276777768093</v>
+        <v>17.782357</v>
       </c>
       <c r="O8">
-        <v>0.1114296780201477</v>
+        <v>0.10959161543229</v>
       </c>
       <c r="P8">
-        <v>0.1114296780201477</v>
+        <v>0.1300894433658214</v>
       </c>
       <c r="Q8">
-        <v>54.74426919789421</v>
+        <v>67.58967596721489</v>
       </c>
       <c r="R8">
-        <v>54.74426919789421</v>
+        <v>608.307083704934</v>
       </c>
       <c r="S8">
-        <v>0.03551933188120349</v>
+        <v>0.032720881533324</v>
       </c>
       <c r="T8">
-        <v>0.03551933188120349</v>
+        <v>0.04179126343949013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H9">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J9">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.81533391827404</v>
+        <v>10.45419133333333</v>
       </c>
       <c r="N9">
-        <v>7.81533391827404</v>
+        <v>31.362574</v>
       </c>
       <c r="O9">
-        <v>0.1642274711328337</v>
+        <v>0.1932856903488518</v>
       </c>
       <c r="P9">
-        <v>0.1642274711328337</v>
+        <v>0.2294375146207774</v>
       </c>
       <c r="Q9">
-        <v>80.6832887712344</v>
+        <v>119.2072689890209</v>
       </c>
       <c r="R9">
-        <v>80.6832887712344</v>
+        <v>1072.865420901188</v>
       </c>
       <c r="S9">
-        <v>0.05234916006957473</v>
+        <v>0.05770950771228513</v>
       </c>
       <c r="T9">
-        <v>0.05234916006957473</v>
+        <v>0.07370685405621448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H10">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J10">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.70715598593627</v>
+        <v>7.705256000000001</v>
       </c>
       <c r="N10">
-        <v>6.70715598593627</v>
+        <v>23.115768</v>
       </c>
       <c r="O10">
-        <v>0.1409407809803499</v>
+        <v>0.1424611122742635</v>
       </c>
       <c r="P10">
-        <v>0.1409407809803499</v>
+        <v>0.1691067945657298</v>
       </c>
       <c r="Q10">
-        <v>69.24277438506681</v>
+        <v>87.86165235875734</v>
       </c>
       <c r="R10">
-        <v>69.24277438506681</v>
+        <v>790.754871228816</v>
       </c>
       <c r="S10">
-        <v>0.04492629310417553</v>
+        <v>0.04253476107131366</v>
       </c>
       <c r="T10">
-        <v>0.04492629310417553</v>
+        <v>0.05432559643775772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.3237161220429</v>
+        <v>11.40282066666667</v>
       </c>
       <c r="H11">
-        <v>10.3237161220429</v>
+        <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.3187600692409899</v>
+        <v>0.2985710303133568</v>
       </c>
       <c r="J11">
-        <v>0.3187600692409899</v>
+        <v>0.3212502287519973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.4316409083866</v>
+        <v>25.566883</v>
       </c>
       <c r="N11">
-        <v>25.4316409083866</v>
+        <v>51.13376599999999</v>
       </c>
       <c r="O11">
-        <v>0.5344076295162343</v>
+        <v>0.4727015675489508</v>
       </c>
       <c r="P11">
-        <v>0.5344076295162343</v>
+        <v>0.3740765724216517</v>
       </c>
       <c r="Q11">
-        <v>262.5490412559165</v>
+        <v>291.5345818546486</v>
       </c>
       <c r="R11">
-        <v>262.5490412559165</v>
+        <v>1749.207491127892</v>
       </c>
       <c r="S11">
-        <v>0.1703478129875081</v>
+        <v>0.1411349940538291</v>
       </c>
       <c r="T11">
-        <v>0.1703478129875081</v>
+        <v>0.1201721844612187</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H12">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I12">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J12">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.33157040558637</v>
+        <v>4.432949333333333</v>
       </c>
       <c r="N12">
-        <v>2.33157040558637</v>
+        <v>13.298848</v>
       </c>
       <c r="O12">
-        <v>0.04899444035043449</v>
+        <v>0.08196001439564389</v>
       </c>
       <c r="P12">
-        <v>0.04899444035043449</v>
+        <v>0.09728967502601975</v>
       </c>
       <c r="Q12">
-        <v>3.416148907475896</v>
+        <v>8.890075972330665</v>
       </c>
       <c r="R12">
-        <v>3.416148907475896</v>
+        <v>80.010683750976</v>
       </c>
       <c r="S12">
-        <v>0.002216475415200437</v>
+        <v>0.004303780400633697</v>
       </c>
       <c r="T12">
-        <v>0.002216475415200437</v>
+        <v>0.005496808523493526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H13">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I13">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J13">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.30276777768093</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N13">
-        <v>5.30276777768093</v>
+        <v>17.782357</v>
       </c>
       <c r="O13">
-        <v>0.1114296780201477</v>
+        <v>0.10959161543229</v>
       </c>
       <c r="P13">
-        <v>0.1114296780201477</v>
+        <v>0.1300894433658214</v>
       </c>
       <c r="Q13">
-        <v>7.769460577694765</v>
+        <v>11.88723299169267</v>
       </c>
       <c r="R13">
-        <v>7.769460577694765</v>
+        <v>106.985096925234</v>
       </c>
       <c r="S13">
-        <v>0.005041003429956877</v>
+        <v>0.005754736014252622</v>
       </c>
       <c r="T13">
-        <v>0.005041003429956877</v>
+        <v>0.007349975841922907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H14">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I14">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J14">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.81533391827404</v>
+        <v>10.45419133333333</v>
       </c>
       <c r="N14">
-        <v>7.81533391827404</v>
+        <v>31.362574</v>
       </c>
       <c r="O14">
-        <v>0.1642274711328337</v>
+        <v>0.1932856903488518</v>
       </c>
       <c r="P14">
-        <v>0.1642274711328337</v>
+        <v>0.2294375146207774</v>
       </c>
       <c r="Q14">
-        <v>11.45079915343872</v>
+        <v>20.96539982619867</v>
       </c>
       <c r="R14">
-        <v>11.45079915343872</v>
+        <v>188.688598435788</v>
       </c>
       <c r="S14">
-        <v>0.007429539957246135</v>
+        <v>0.01014957320322963</v>
       </c>
       <c r="T14">
-        <v>0.007429539957246135</v>
+        <v>0.01296308252277915</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H15">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I15">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J15">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.70715598593627</v>
+        <v>7.705256000000001</v>
       </c>
       <c r="N15">
-        <v>6.70715598593627</v>
+        <v>23.115768</v>
       </c>
       <c r="O15">
-        <v>0.1409407809803499</v>
+        <v>0.1424611122742635</v>
       </c>
       <c r="P15">
-        <v>0.1409407809803499</v>
+        <v>0.1691067945657298</v>
       </c>
       <c r="Q15">
-        <v>9.827129191007325</v>
+        <v>15.452536466224</v>
       </c>
       <c r="R15">
-        <v>9.827129191007325</v>
+        <v>139.072828196016</v>
       </c>
       <c r="S15">
-        <v>0.006376065810890003</v>
+        <v>0.00748073737394364</v>
       </c>
       <c r="T15">
-        <v>0.006376065810890003</v>
+        <v>0.009554432877907838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.46517081332432</v>
+        <v>2.005454</v>
       </c>
       <c r="H16">
-        <v>1.46517081332432</v>
+        <v>6.016362</v>
       </c>
       <c r="I16">
-        <v>0.04523932510193029</v>
+        <v>0.05251073260990594</v>
       </c>
       <c r="J16">
-        <v>0.04523932510193029</v>
+        <v>0.05649940265525016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.4316409083866</v>
+        <v>25.566883</v>
       </c>
       <c r="N16">
-        <v>25.4316409083866</v>
+        <v>51.13376599999999</v>
       </c>
       <c r="O16">
-        <v>0.5344076295162343</v>
+        <v>0.4727015675489508</v>
       </c>
       <c r="P16">
-        <v>0.5344076295162343</v>
+        <v>0.3740765724216517</v>
       </c>
       <c r="Q16">
-        <v>37.26169799391285</v>
+        <v>51.27320777988199</v>
       </c>
       <c r="R16">
-        <v>37.26169799391285</v>
+        <v>307.6392466792919</v>
       </c>
       <c r="S16">
-        <v>0.02417624048863684</v>
+        <v>0.02482190561784634</v>
       </c>
       <c r="T16">
-        <v>0.02417624048863684</v>
+        <v>0.02113510288914675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H17">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I17">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J17">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.33157040558637</v>
+        <v>4.432949333333333</v>
       </c>
       <c r="N17">
-        <v>2.33157040558637</v>
+        <v>13.298848</v>
       </c>
       <c r="O17">
-        <v>0.04899444035043449</v>
+        <v>0.08196001439564389</v>
       </c>
       <c r="P17">
-        <v>0.04899444035043449</v>
+        <v>0.09728967502601975</v>
       </c>
       <c r="Q17">
-        <v>3.316089906266742</v>
+        <v>7.028789893347556</v>
       </c>
       <c r="R17">
-        <v>3.316089906266742</v>
+        <v>63.259109040128</v>
       </c>
       <c r="S17">
-        <v>0.002151554850477904</v>
+        <v>0.003402711999010155</v>
       </c>
       <c r="T17">
-        <v>0.002151554850477904</v>
+        <v>0.004345959732610588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H18">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I18">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J18">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.30276777768093</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N18">
-        <v>5.30276777768093</v>
+        <v>17.782357</v>
       </c>
       <c r="O18">
-        <v>0.1114296780201477</v>
+        <v>0.10959161543229</v>
       </c>
       <c r="P18">
-        <v>0.1114296780201477</v>
+        <v>0.1300894433658214</v>
       </c>
       <c r="Q18">
-        <v>7.541893078035495</v>
+        <v>9.39844196741689</v>
       </c>
       <c r="R18">
-        <v>7.541893078035495</v>
+        <v>84.585977706752</v>
       </c>
       <c r="S18">
-        <v>0.004893352439922579</v>
+        <v>0.004549885789700148</v>
       </c>
       <c r="T18">
-        <v>0.004893352439922579</v>
+        <v>0.005811135481276725</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H19">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I19">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J19">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.81533391827404</v>
+        <v>10.45419133333333</v>
       </c>
       <c r="N19">
-        <v>7.81533391827404</v>
+        <v>31.362574</v>
       </c>
       <c r="O19">
-        <v>0.1642274711328337</v>
+        <v>0.1932856903488518</v>
       </c>
       <c r="P19">
-        <v>0.1642274711328337</v>
+        <v>0.2294375146207774</v>
       </c>
       <c r="Q19">
-        <v>11.1154052472093</v>
+        <v>16.57594275538489</v>
       </c>
       <c r="R19">
-        <v>11.1154052472093</v>
+        <v>149.183484798464</v>
       </c>
       <c r="S19">
-        <v>0.00721192873253087</v>
+        <v>0.008024590315615603</v>
       </c>
       <c r="T19">
-        <v>0.00721192873253087</v>
+        <v>0.01024904440708096</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H20">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I20">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J20">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.70715598593627</v>
+        <v>7.705256000000001</v>
       </c>
       <c r="N20">
-        <v>6.70715598593627</v>
+        <v>23.115768</v>
       </c>
       <c r="O20">
-        <v>0.1409407809803499</v>
+        <v>0.1424611122742635</v>
       </c>
       <c r="P20">
-        <v>0.1409407809803499</v>
+        <v>0.1691067945657298</v>
       </c>
       <c r="Q20">
-        <v>9.5392925778393</v>
+        <v>12.21728953480534</v>
       </c>
       <c r="R20">
-        <v>9.5392925778393</v>
+        <v>109.955605813248</v>
       </c>
       <c r="S20">
-        <v>0.006189310843831826</v>
+        <v>0.005914519899763874</v>
       </c>
       <c r="T20">
-        <v>0.006189310843831826</v>
+        <v>0.007554052570295441</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.42225596032678</v>
+        <v>1.585578666666667</v>
       </c>
       <c r="H21">
-        <v>1.42225596032678</v>
+        <v>4.756736</v>
       </c>
       <c r="I21">
-        <v>0.04391426527354595</v>
+        <v>0.04151673256893677</v>
       </c>
       <c r="J21">
-        <v>0.04391426527354595</v>
+        <v>0.04467030783532042</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.4316409083866</v>
+        <v>25.566883</v>
       </c>
       <c r="N21">
-        <v>25.4316409083866</v>
+        <v>51.13376599999999</v>
       </c>
       <c r="O21">
-        <v>0.5344076295162343</v>
+        <v>0.4727015675489508</v>
       </c>
       <c r="P21">
-        <v>0.5344076295162343</v>
+        <v>0.3740765724216517</v>
       </c>
       <c r="Q21">
-        <v>36.17030286284321</v>
+        <v>40.53830425796266</v>
       </c>
       <c r="R21">
-        <v>36.17030286284321</v>
+        <v>243.229825547776</v>
       </c>
       <c r="S21">
-        <v>0.02346811840678278</v>
+        <v>0.01962502456484699</v>
       </c>
       <c r="T21">
-        <v>0.02346811840678278</v>
+        <v>0.01671011564405672</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H22">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I22">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J22">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.33157040558637</v>
+        <v>4.432949333333333</v>
       </c>
       <c r="N22">
-        <v>2.33157040558637</v>
+        <v>13.298848</v>
       </c>
       <c r="O22">
-        <v>0.04899444035043449</v>
+        <v>0.08196001439564389</v>
       </c>
       <c r="P22">
-        <v>0.04899444035043449</v>
+        <v>0.09728967502601975</v>
       </c>
       <c r="Q22">
-        <v>15.44327943251795</v>
+        <v>35.85608800064</v>
       </c>
       <c r="R22">
-        <v>15.44327943251795</v>
+        <v>215.13652800384</v>
       </c>
       <c r="S22">
-        <v>0.01001995232624037</v>
+        <v>0.01735831383903181</v>
       </c>
       <c r="T22">
-        <v>0.01001995232624037</v>
+        <v>0.01478007992691209</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H23">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I23">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J23">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.30276777768093</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N23">
-        <v>5.30276777768093</v>
+        <v>17.782357</v>
       </c>
       <c r="O23">
-        <v>0.1114296780201477</v>
+        <v>0.10959161543229</v>
       </c>
       <c r="P23">
-        <v>0.1114296780201477</v>
+        <v>0.1300894433658214</v>
       </c>
       <c r="Q23">
-        <v>35.1231617798321</v>
+        <v>47.94443529626</v>
       </c>
       <c r="R23">
-        <v>35.1231617798321</v>
+        <v>287.66661177756</v>
       </c>
       <c r="S23">
-        <v>0.02278870936180195</v>
+        <v>0.02321041142839621</v>
       </c>
       <c r="T23">
-        <v>0.02278870936180195</v>
+        <v>0.01976296426193341</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H24">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I24">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J24">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.81533391827404</v>
+        <v>10.45419133333333</v>
       </c>
       <c r="N24">
-        <v>7.81533391827404</v>
+        <v>31.362574</v>
       </c>
       <c r="O24">
-        <v>0.1642274711328337</v>
+        <v>0.1932856903488518</v>
       </c>
       <c r="P24">
-        <v>0.1642274711328337</v>
+        <v>0.2294375146207774</v>
       </c>
       <c r="Q24">
-        <v>51.76527599988464</v>
+        <v>84.55914476732001</v>
       </c>
       <c r="R24">
-        <v>51.76527599988464</v>
+        <v>507.3548686039201</v>
       </c>
       <c r="S24">
-        <v>0.03358649307227808</v>
+        <v>0.04093598199572318</v>
       </c>
       <c r="T24">
-        <v>0.03358649307227808</v>
+        <v>0.03485575220001724</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H25">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I25">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J25">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.70715598593627</v>
+        <v>7.705256000000001</v>
       </c>
       <c r="N25">
-        <v>6.70715598593627</v>
+        <v>23.115768</v>
       </c>
       <c r="O25">
-        <v>0.1409407809803499</v>
+        <v>0.1424611122742635</v>
       </c>
       <c r="P25">
-        <v>0.1409407809803499</v>
+        <v>0.1691067945657298</v>
       </c>
       <c r="Q25">
-        <v>44.42520107483078</v>
+        <v>62.32427136624001</v>
       </c>
       <c r="R25">
-        <v>44.42520107483078</v>
+        <v>373.94562819744</v>
       </c>
       <c r="S25">
-        <v>0.02882408485830714</v>
+        <v>0.03017184312312229</v>
       </c>
       <c r="T25">
-        <v>0.02882408485830714</v>
+        <v>0.02569041308028761</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.6235526902882</v>
+        <v>8.08854</v>
       </c>
       <c r="H26">
-        <v>6.6235526902882</v>
+        <v>16.17708</v>
       </c>
       <c r="I26">
-        <v>0.2045120273764186</v>
+        <v>0.2117900291627375</v>
       </c>
       <c r="J26">
-        <v>0.2045120273764186</v>
+        <v>0.1519182783060917</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.4316409083866</v>
+        <v>25.566883</v>
       </c>
       <c r="N26">
-        <v>25.4316409083866</v>
+        <v>51.13376599999999</v>
       </c>
       <c r="O26">
-        <v>0.5344076295162343</v>
+        <v>0.4727015675489508</v>
       </c>
       <c r="P26">
-        <v>0.5344076295162343</v>
+        <v>0.3740765724216517</v>
       </c>
       <c r="Q26">
-        <v>168.4478135571875</v>
+        <v>206.79875582082</v>
       </c>
       <c r="R26">
-        <v>168.4478135571875</v>
+        <v>827.19502328328</v>
       </c>
       <c r="S26">
-        <v>0.1092927877577911</v>
+        <v>0.100113478776464</v>
       </c>
       <c r="T26">
-        <v>0.1092927877577911</v>
+        <v>0.05682906883694133</v>
       </c>
     </row>
   </sheetData>
